--- a/results/birth/SEED_7/result.xlsx
+++ b/results/birth/SEED_7/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2139.378529841105</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>388.7941331354777</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>390.4555086326599</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>396.1297881952922</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>404.8850300725301</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>399.9933110872905</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>422.9706127548218</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>465.3850090344747</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>530.7225015640258</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2246.717900864839</v>
       </c>
+      <c r="AK5" t="n">
+        <v>494.9355776898348</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>496.0653211784122</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>512.6856040079016</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>512.5277097896816</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>505.0292728073783</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>524.0549090765296</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>598.3512259127895</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>669.2632805051381</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -977,52 +1077,52 @@
         <v>0.9990565623583736</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9990162896995984</v>
+        <v>0.9990162896995987</v>
       </c>
       <c r="G6" t="n">
         <v>0.998983188811926</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9989101376619364</v>
+        <v>0.9989101376619366</v>
       </c>
       <c r="I6" t="n">
         <v>0.9988505369619036</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9986355508150538</v>
+        <v>0.9986355508150541</v>
       </c>
       <c r="K6" t="n">
         <v>0.9983600367199862</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9964628678049245</v>
+        <v>0.9964628678049243</v>
       </c>
       <c r="M6" t="n">
         <v>0.9990637203290932</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9990090211462521</v>
+        <v>0.9990090211462519</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9989752813177241</v>
+        <v>0.9989752813177242</v>
       </c>
       <c r="P6" t="n">
         <v>0.9989344576630139</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.9988647555645127</v>
+        <v>0.9988647555645126</v>
       </c>
       <c r="R6" t="n">
         <v>0.9988156301567365</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9986642082920396</v>
+        <v>0.9986642082920394</v>
       </c>
       <c r="T6" t="n">
         <v>0.9977181155190733</v>
       </c>
       <c r="U6" t="n">
-        <v>0.998901965198031</v>
+        <v>0.9989019651980308</v>
       </c>
       <c r="V6" t="n">
         <v>0.998685698455502</v>
@@ -1031,7 +1131,7 @@
         <v>0.998392753358996</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9980806713341308</v>
+        <v>0.9980806713341305</v>
       </c>
       <c r="Y6" t="n">
         <v>0.9976436015041781</v>
@@ -1049,7 +1149,7 @@
         <v>0.9987965783854379</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9984427010500529</v>
+        <v>0.9984427010500527</v>
       </c>
       <c r="AE6" t="n">
         <v>0.9979868670017462</v>
@@ -1058,7 +1158,7 @@
         <v>0.9974820679324015</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9969199941812275</v>
+        <v>0.9969199941812273</v>
       </c>
       <c r="AH6" t="n">
         <v>0.9951002990901407</v>
@@ -1067,7 +1167,31 @@
         <v>0.9929164754641557</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.9819844276908409</v>
+        <v>0.981984427690841</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9990812878863992</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.9990728603041439</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9990138610641622</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9990136468229462</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9990471700663242</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.998970238352288</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9986954536920335</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9983720768549517</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>1999.032308651606</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>430.1658343696594</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>440.5437993240357</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>438.0136953481039</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>441.7747868728638</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>450.9467717806498</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>471.9133929634094</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>496.4043810717265</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>662.20238032341</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2058.887098439415</v>
       </c>
+      <c r="AK8" t="n">
+        <v>534.7461932930476</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>545.0875114101331</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>542.1400764399948</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>542.2315082601884</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>557.2560132977309</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>576.9849229598018</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>638.9920224895405</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>849.4588721047309</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1311,7 +1483,7 @@
         <v>0.9990703566616252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9990617877043614</v>
+        <v>0.9990617877043612</v>
       </c>
       <c r="G9" t="n">
         <v>0.9990447254255144</v>
@@ -1326,7 +1498,7 @@
         <v>0.9988755112980044</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9987183414491267</v>
+        <v>0.998718341449127</v>
       </c>
       <c r="L9" t="n">
         <v>0.9976463016393409</v>
@@ -1338,7 +1510,7 @@
         <v>0.9990562860925006</v>
       </c>
       <c r="O9" t="n">
-        <v>0.9990393706153136</v>
+        <v>0.9990393706153137</v>
       </c>
       <c r="P9" t="n">
         <v>0.9990089500170392</v>
@@ -1347,10 +1519,10 @@
         <v>0.9989564428490909</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9988202966563882</v>
+        <v>0.9988202966563879</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9985391751289009</v>
+        <v>0.9985391751289007</v>
       </c>
       <c r="T9" t="n">
         <v>0.9967470790942368</v>
@@ -1398,10 +1570,34 @@
         <v>0.9961084029292849</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.9944102750021037</v>
+        <v>0.9944102750021038</v>
       </c>
       <c r="AJ9" t="n">
         <v>0.9851741628685676</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9990580259725287</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9990172885614707</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9990508476195674</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9990322593483323</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9989520951972153</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9988732837467722</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9986375338857665</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9974834032983582</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>2142.766641464234</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>315.4832647895813</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>325.6468609682719</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>328.3650758425395</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>342.9912374814351</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>366.9516002591451</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>406.305668481191</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>434.6801609420776</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>614.2438938077291</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>2237.931049509498</v>
       </c>
+      <c r="AK11" t="n">
+        <v>436.7039025010438</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>439.8650674336101</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>447.9125073255196</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>478.2917866976079</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>496.4014161890135</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>525.1313566114299</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>550.455021070307</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>783.6659081036958</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1645,10 +1889,10 @@
         <v>0.9990374813927483</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9989927507277813</v>
+        <v>0.998992750727781</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9989359491752645</v>
+        <v>0.9989359491752647</v>
       </c>
       <c r="H12" t="n">
         <v>0.998867993293531</v>
@@ -1660,7 +1904,7 @@
         <v>0.9985232101630607</v>
       </c>
       <c r="K12" t="n">
-        <v>0.998163150540229</v>
+        <v>0.9981631505402287</v>
       </c>
       <c r="L12" t="n">
         <v>0.9955552300234906</v>
@@ -1669,7 +1913,7 @@
         <v>0.9992416335766732</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9991955273279455</v>
+        <v>0.9991955273279454</v>
       </c>
       <c r="O12" t="n">
         <v>0.9991404083424408</v>
@@ -1678,7 +1922,7 @@
         <v>0.9990713937910483</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.9989895018075567</v>
+        <v>0.9989895018075566</v>
       </c>
       <c r="R12" t="n">
         <v>0.9987996182813696</v>
@@ -1693,16 +1937,16 @@
         <v>0.9990464949154749</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9987615067926983</v>
+        <v>0.9987615067926985</v>
       </c>
       <c r="W12" t="n">
         <v>0.9984055464248642</v>
       </c>
       <c r="X12" t="n">
-        <v>0.9979651884116223</v>
+        <v>0.9979651884116225</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9974182037518298</v>
+        <v>0.9974182037518295</v>
       </c>
       <c r="Z12" t="n">
         <v>0.9955451798666515</v>
@@ -1726,7 +1970,7 @@
         <v>0.9976581001622815</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.9969471938862412</v>
+        <v>0.9969471938862415</v>
       </c>
       <c r="AH12" t="n">
         <v>0.9945205835189884</v>
@@ -1737,15 +1981,40 @@
       <c r="AJ12" t="n">
         <v>0.9807151040286137</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9992559810232363</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.9992427341713156</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9992122560028498</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.9991056020257222</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9990428952477747</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.9989075982313051</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9988037767255009</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9975547046069417</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
